--- a/biology/Botanique/Stylidiaceae/Stylidiaceae.xlsx
+++ b/biology/Botanique/Stylidiaceae/Stylidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Stylidiacées regroupe des plantes dicotylédones. En circonscription classique et dans la classification phylogénétique APG (1998)[1] elle comprend 155 espèces réparties en 5 genres.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Stylidiacées regroupe des plantes dicotylédones. En circonscription classique et dans la classification phylogénétique APG (1998) elle comprend 155 espèces réparties en 5 genres.
 Ce sont des plantes herbacées ou des arbrisseaux, pérennes, à rosette, rhizomateux ou tubéreux, des zones marécageuses à arides, des régions tempérées à tropicales. On les rencontre en Asie du Sud-Est, Malaisie, Australie, Nouvelle-Zélande et en Amérique australe.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Stylidium, dérivé du grec στύλος / stýlos, « colonne ; pilier », qui fait référence à la structure particulière de l’appareil reproducteur de ses fleurs[2]. En effet, chez ces plantes, la pollinisation est réalisée par l'utilisation de « gachettes » (triggers), qui comprend les organes reproducteurs mâles et femelles fusionnés en une « colonne florale » qui jaillit rapidement en avant en réponse au toucher d'un insecte, couvrant ce dernier de pollen.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Stylidium, dérivé du grec στύλος / stýlos, « colonne ; pilier », qui fait référence à la structure particulière de l’appareil reproducteur de ses fleurs. En effet, chez ces plantes, la pollinisation est réalisée par l'utilisation de « gachettes » (triggers), qui comprend les organes reproducteurs mâles et femelles fusionnés en une « colonne florale » qui jaillit rapidement en avant en réponse au toucher d'un insecte, couvrant ce dernier de pollen.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG II (2003)[3] offre deux options pour la circonscription de cette famille :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG II (2003) offre deux options pour la circonscription de cette famille :
 stricto sensu, en excludant le genre Donatia
 lato sensu, en includant le genre Donatia.
-La classification phylogénétique APG III (2009)[4] inclut dans cette famille les genres précédemment placés dans la famille des Donatiaceae et son genre Donatia.
+La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille des Donatiaceae et son genre Donatia.
 Le Angiosperm Phylogeny Website [17 dec 2006] accepte la famille lato sensu et reconnaît deux sous-familles :
 les Stylidioidées avec les 5 genres  et 155 espèces.
 les Donatioidées, ancienne famille des Donatiacées avec 1 seul genre, Donatia, et deux espèces.</t>
@@ -579,16 +595,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 Jul 2010)[5] et NCBI  (12 Jul 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 Jul 2010) et NCBI  (12 Jul 2010) :
 genre Donatia (en) (ancienne Donatiaceae)
 genre Forstera (en)
 genre Levenhookia (en)
 genre Oreostylidium (en)
 genre Phyllachne (en)
 genre Stylidium
-Selon DELTA Angio           (12 Jul 2010)[7] :
+Selon DELTA Angio           (12 Jul 2010) :
 genre Fostera
 genre Levenhookia
 genre Oreostylidium
@@ -621,9 +639,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 Jul 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 Jul 2010) :
 genre Donatia
 Donatia fascicularis
 Donatia novae-zelandiae
